--- a/単体テストエビデンス_0F_pc_口座開設申込(通常画面・個人)_入力(2~3)(Chrome).xlsx
+++ b/単体テストエビデンス_0F_pc_口座開設申込(通常画面・個人)_入力(2~3)(Chrome).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25-00297\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D6CD59-F9DD-4C7A-84F9-E06113CB5283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B97891-2F91-40BD-A0AC-70189D2A2679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14505" windowHeight="15750" tabRatio="911" xr2:uid="{855FB65B-AF0A-4A2A-908A-4B669E910F58}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" tabRatio="911" xr2:uid="{855FB65B-AF0A-4A2A-908A-4B669E910F58}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,128 +99,84 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>134469</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28021</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>152564</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FA1A21-82BA-01F4-AF60-6CD7423933FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683559" y="8897469"/>
-          <a:ext cx="8914286" cy="7638095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>37544</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>145390</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B4D942-B62B-74B5-5152-DD157B8B9642}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683559" y="16528676"/>
-          <a:ext cx="8923809" cy="2285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28021</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17050</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>94143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394D9B2A-97DA-6AFA-41C8-0673C5977793}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683559" y="190500"/>
-          <a:ext cx="8914286" cy="8857143"/>
+      <xdr:rowOff>103667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2725A4D2-B021-A02B-4362-6C34F8AC4557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="190500"/>
+          <a:ext cx="11514286" cy="8866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>45621</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>112123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6339297D-0056-0816-557D-662269CDAB05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="9009528"/>
+          <a:ext cx="11542857" cy="8438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2871,7 +2827,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2884,7 +2840,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2897,7 +2853,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2912,7 +2868,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2925,7 +2881,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2941,7 +2897,7 @@
       <selection activeCell="N131" sqref="N131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2956,7 +2912,7 @@
       <selection activeCell="M130" sqref="M130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2969,7 +2925,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2982,7 +2938,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2995,7 +2951,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3008,7 +2964,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
